--- a/Results/LocalSpark.xlsx
+++ b/Results/LocalSpark.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xin Yang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yx960203/Desktop/Code/559/project_cc/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>ADLER32</t>
   </si>
@@ -111,71 +111,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Round1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round5</t>
+  </si>
+  <si>
+    <t>Round6</t>
+  </si>
+  <si>
+    <t>Round7</t>
+  </si>
+  <si>
+    <t>Round8</t>
+  </si>
+  <si>
+    <t>Round9</t>
+  </si>
+  <si>
+    <t>Round10</t>
+  </si>
+  <si>
     <t>Standard Deviation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Round1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Round2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Round3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Round4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Round5</t>
-  </si>
-  <si>
-    <t>Round6</t>
-  </si>
-  <si>
-    <t>Round7</t>
-  </si>
-  <si>
-    <t>Round8</t>
-  </si>
-  <si>
-    <t>Round9</t>
-  </si>
-  <si>
-    <t>Round10</t>
-  </si>
-  <si>
-    <t>Average time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N/A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution Conditions</t>
+  </si>
+  <si>
+    <t>Time/s</t>
+  </si>
+  <si>
+    <t>Total Records</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -201,11 +205,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -485,18 +491,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -515,47 +521,47 @@
       <c r="G2" t="s">
         <v>24</v>
       </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
       <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -574,8 +580,12 @@
       <c r="G3">
         <v>32690</v>
       </c>
-      <c r="I3">
-        <f>STDEV(C3:G3)</f>
+      <c r="H3" s="2">
+        <f>AVERAGE(K3:T3)</f>
+        <v>44.353310100000002</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I15" si="0">STDEV(C3:G3)</f>
         <v>383.72555296722157</v>
       </c>
       <c r="K3">
@@ -608,8 +618,8 @@
       <c r="T3">
         <v>40.615110000000001</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V48" si="0">AVERAGE(K3:T3)</f>
+      <c r="V3" s="1">
+        <f>AVERAGE(K3:T3)</f>
         <v>44.353310100000002</v>
       </c>
       <c r="W3">
@@ -617,69 +627,73 @@
         <v>2.315127953415459</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>32754</v>
+        <v>33497</v>
       </c>
       <c r="D4">
-        <v>32753</v>
+        <v>32113</v>
       </c>
       <c r="E4">
-        <v>32751</v>
+        <v>32958</v>
       </c>
       <c r="F4">
-        <v>32751</v>
+        <v>32749</v>
       </c>
       <c r="G4">
-        <v>32757</v>
-      </c>
-      <c r="I4">
+        <v>32467</v>
+      </c>
+      <c r="H4" s="2">
+        <f>AVERAGE(K4:T4)</f>
+        <v>40.973892700000007</v>
+      </c>
+      <c r="I4" s="2">
         <f>STDEV(C4:G4)</f>
-        <v>2.4899799195977463</v>
+        <v>521.27267336778743</v>
       </c>
       <c r="K4">
-        <v>39.551774000000002</v>
+        <v>43.358820999999999</v>
       </c>
       <c r="L4">
-        <v>42.458820000000003</v>
+        <v>43.916727999999999</v>
       </c>
       <c r="M4">
-        <v>38.152836999999998</v>
+        <v>39.162295</v>
       </c>
       <c r="N4">
-        <v>37.326208999999999</v>
+        <v>41.393599000000002</v>
       </c>
       <c r="O4">
-        <v>38.228394999999999</v>
+        <v>37.613526999999998</v>
       </c>
       <c r="P4">
-        <v>38.491155999999997</v>
+        <v>41.168304999999997</v>
       </c>
       <c r="Q4">
-        <v>37.26097</v>
+        <v>40.851838000000001</v>
       </c>
       <c r="R4">
-        <v>39.488447000000001</v>
+        <v>41.664650000000002</v>
       </c>
       <c r="S4">
-        <v>42.486249999999998</v>
+        <v>40.154331999999997</v>
       </c>
       <c r="T4">
-        <v>37.847490000000001</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>39.129234799999999</v>
+        <v>40.454832000000003</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V15" si="1">AVERAGE(K4:T4)</f>
+        <v>40.973892700000007</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W48" si="1">STDEV(K4:T4)</f>
-        <v>1.9212107331947859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <f>STDEV(K4:T4)</f>
+        <v>1.8429807599123553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -698,7 +712,11 @@
       <c r="G5">
         <v>32448</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="2">
+        <f>AVERAGE(K5:T5)</f>
+        <v>39.629184200000005</v>
+      </c>
+      <c r="I5" s="2">
         <f>STDEV(C5:G5)</f>
         <v>464.58422271962701</v>
       </c>
@@ -732,187 +750,150 @@
       <c r="T5">
         <v>37.248105000000002</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
+        <f t="shared" si="1"/>
+        <v>39.629184200000005</v>
+      </c>
+      <c r="W5">
+        <f>STDEV(K5:T5)</f>
+        <v>2.1889919926047541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>32754</v>
+      </c>
+      <c r="D6">
+        <v>32753</v>
+      </c>
+      <c r="E6">
+        <v>32751</v>
+      </c>
+      <c r="F6">
+        <v>32751</v>
+      </c>
+      <c r="G6">
+        <v>32757</v>
+      </c>
+      <c r="H6" s="2">
+        <f>AVERAGE(K6:T6)</f>
+        <v>39.129234799999999</v>
+      </c>
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>39.629184200000005</v>
-      </c>
-      <c r="W5">
+        <v>2.4899799195977463</v>
+      </c>
+      <c r="K6">
+        <v>39.551774000000002</v>
+      </c>
+      <c r="L6">
+        <v>42.458820000000003</v>
+      </c>
+      <c r="M6">
+        <v>38.152836999999998</v>
+      </c>
+      <c r="N6">
+        <v>37.326208999999999</v>
+      </c>
+      <c r="O6">
+        <v>38.228394999999999</v>
+      </c>
+      <c r="P6">
+        <v>38.491155999999997</v>
+      </c>
+      <c r="Q6">
+        <v>37.26097</v>
+      </c>
+      <c r="R6">
+        <v>39.488447000000001</v>
+      </c>
+      <c r="S6">
+        <v>42.486249999999998</v>
+      </c>
+      <c r="T6">
+        <v>37.847490000000001</v>
+      </c>
+      <c r="V6" s="1">
         <f t="shared" si="1"/>
-        <v>2.1889919926047541</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>33497</v>
-      </c>
-      <c r="D6">
-        <v>32113</v>
-      </c>
-      <c r="E6">
-        <v>32958</v>
-      </c>
-      <c r="F6">
-        <v>32749</v>
-      </c>
-      <c r="G6">
-        <v>32467</v>
-      </c>
-      <c r="I6">
-        <f>STDEV(C6:G6)</f>
-        <v>521.27267336778743</v>
-      </c>
-      <c r="K6">
-        <v>43.358820999999999</v>
-      </c>
-      <c r="L6">
-        <v>43.916727999999999</v>
-      </c>
-      <c r="M6">
-        <v>39.162295</v>
-      </c>
-      <c r="N6">
-        <v>41.393599000000002</v>
-      </c>
-      <c r="O6">
-        <v>37.613526999999998</v>
-      </c>
-      <c r="P6">
-        <v>41.168304999999997</v>
-      </c>
-      <c r="Q6">
-        <v>40.851838000000001</v>
-      </c>
-      <c r="R6">
-        <v>41.664650000000002</v>
-      </c>
-      <c r="S6">
-        <v>40.154331999999997</v>
-      </c>
-      <c r="T6">
-        <v>40.454832000000003</v>
-      </c>
-      <c r="V6">
+        <v>39.129234799999999</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W48" si="2">STDEV(K6:T6)</f>
+        <v>1.9212107331947859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>33298</v>
+      </c>
+      <c r="D8">
+        <v>32588</v>
+      </c>
+      <c r="E8">
+        <v>32852</v>
+      </c>
+      <c r="F8">
+        <v>32672</v>
+      </c>
+      <c r="G8">
+        <v>32371</v>
+      </c>
+      <c r="H8" s="2">
+        <f>AVERAGE(K8:T8)</f>
+        <v>249.20063580000001</v>
+      </c>
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
-        <v>40.973892700000007</v>
-      </c>
-      <c r="W6">
+        <v>348.7423117432125</v>
+      </c>
+      <c r="K8">
+        <v>274.91218800000001</v>
+      </c>
+      <c r="L8">
+        <v>241.90377899999999</v>
+      </c>
+      <c r="M8">
+        <v>219.91033400000001</v>
+      </c>
+      <c r="N8">
+        <v>223.978397</v>
+      </c>
+      <c r="O8">
+        <v>285.29848099999998</v>
+      </c>
+      <c r="V8" s="1">
         <f t="shared" si="1"/>
-        <v>1.8429807599123553</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>33298</v>
-      </c>
-      <c r="D7">
-        <v>32588</v>
-      </c>
-      <c r="E7">
-        <v>32852</v>
-      </c>
-      <c r="F7">
-        <v>32672</v>
-      </c>
-      <c r="G7">
-        <v>32371</v>
-      </c>
-      <c r="I7">
-        <f>STDEV(C7:G7)</f>
-        <v>348.7423117432125</v>
-      </c>
-      <c r="K7">
-        <v>274.91218800000001</v>
-      </c>
-      <c r="L7">
-        <v>241.90377899999999</v>
-      </c>
-      <c r="M7">
-        <v>219.91033400000001</v>
-      </c>
-      <c r="N7">
-        <v>223.978397</v>
-      </c>
-      <c r="O7">
-        <v>285.29848099999998</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
         <v>249.20063580000001</v>
       </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
+      <c r="W8">
+        <f t="shared" si="2"/>
         <v>29.628810191245808</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>32463</v>
-      </c>
-      <c r="D8">
-        <v>33157</v>
-      </c>
-      <c r="E8">
-        <v>32546</v>
-      </c>
-      <c r="F8">
-        <v>32833</v>
-      </c>
-      <c r="G8">
-        <v>32776</v>
-      </c>
-      <c r="I8">
-        <f>STDEV(C8:G8)</f>
-        <v>272.52247613729037</v>
-      </c>
-      <c r="K8">
-        <v>59.239109999999997</v>
-      </c>
-      <c r="L8">
-        <v>55.583806000000003</v>
-      </c>
-      <c r="M8">
-        <v>72.463915</v>
-      </c>
-      <c r="N8">
-        <v>70.476125999999994</v>
-      </c>
-      <c r="O8">
-        <v>65.839771999999996</v>
-      </c>
-      <c r="P8">
-        <v>75.730895000000004</v>
-      </c>
-      <c r="Q8">
-        <v>68.122125999999994</v>
-      </c>
-      <c r="R8">
-        <v>65.956440999999998</v>
-      </c>
-      <c r="S8">
-        <v>70.564346</v>
-      </c>
-      <c r="T8">
-        <v>66.387338999999997</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>67.036387599999998</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>6.0137641394693002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -931,7 +912,11 @@
       <c r="G9">
         <v>32515</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="2">
+        <f>AVERAGE(K9:T9)</f>
+        <v>186.35281119999999</v>
+      </c>
+      <c r="I9" s="2">
         <f>STDEV(C9:G9)</f>
         <v>365.15024305072018</v>
       </c>
@@ -950,63 +935,82 @@
       <c r="O9">
         <v>184.36129</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="1">
+        <f t="shared" si="1"/>
+        <v>186.35281119999999</v>
+      </c>
+      <c r="W9">
+        <f>STDEV(K9:T9)</f>
+        <v>16.044754311507699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>32463</v>
+      </c>
+      <c r="D10">
+        <v>33157</v>
+      </c>
+      <c r="E10">
+        <v>32546</v>
+      </c>
+      <c r="F10">
+        <v>32833</v>
+      </c>
+      <c r="G10">
+        <v>32776</v>
+      </c>
+      <c r="H10" s="2">
+        <f>AVERAGE(K10:T10)</f>
+        <v>67.036387599999998</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>186.35281119999999</v>
-      </c>
-      <c r="W9">
+        <v>272.52247613729037</v>
+      </c>
+      <c r="K10">
+        <v>59.239109999999997</v>
+      </c>
+      <c r="L10">
+        <v>55.583806000000003</v>
+      </c>
+      <c r="M10">
+        <v>72.463915</v>
+      </c>
+      <c r="N10">
+        <v>70.476125999999994</v>
+      </c>
+      <c r="O10">
+        <v>65.839771999999996</v>
+      </c>
+      <c r="P10">
+        <v>75.730895000000004</v>
+      </c>
+      <c r="Q10">
+        <v>68.122125999999994</v>
+      </c>
+      <c r="R10">
+        <v>65.956440999999998</v>
+      </c>
+      <c r="S10">
+        <v>70.564346</v>
+      </c>
+      <c r="T10">
+        <v>66.387338999999997</v>
+      </c>
+      <c r="V10" s="1">
         <f t="shared" si="1"/>
-        <v>16.044754311507699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>32753</v>
-      </c>
-      <c r="D10">
-        <v>32760</v>
-      </c>
-      <c r="E10">
-        <v>32757</v>
-      </c>
-      <c r="F10">
-        <v>32759</v>
-      </c>
-      <c r="G10">
-        <v>32765</v>
-      </c>
-      <c r="I10">
-        <f>STDEV(C10:G10)</f>
-        <v>4.3817804600413286</v>
-      </c>
-      <c r="K10">
-        <v>94.941439000000003</v>
-      </c>
-      <c r="L10">
-        <v>112.54473900000001</v>
-      </c>
-      <c r="M10">
-        <v>98.259125999999995</v>
-      </c>
-      <c r="N10">
-        <v>91.931843999999998</v>
-      </c>
-      <c r="O10">
-        <v>93.200222999999994</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>98.175474199999996</v>
+        <v>67.036387599999998</v>
       </c>
       <c r="W10">
-        <f t="shared" si="1"/>
-        <v>8.3767206406871271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <f t="shared" si="2"/>
+        <v>6.0137641394693002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1029,11 @@
       <c r="G11">
         <v>32462</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="2">
+        <f>AVERAGE(K11:T11)</f>
+        <v>53.357165199999997</v>
+      </c>
+      <c r="I11" s="2">
         <f>STDEV(C11:G11)</f>
         <v>511.40717632821696</v>
       </c>
@@ -1059,157 +1067,223 @@
       <c r="T11">
         <v>48.077444</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
+        <f t="shared" si="1"/>
+        <v>53.357165199999997</v>
+      </c>
+      <c r="W11">
+        <f>STDEV(K11:T11)</f>
+        <v>5.6486967674444228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>32753</v>
+      </c>
+      <c r="D12">
+        <v>32760</v>
+      </c>
+      <c r="E12">
+        <v>32757</v>
+      </c>
+      <c r="F12">
+        <v>32759</v>
+      </c>
+      <c r="G12">
+        <v>32765</v>
+      </c>
+      <c r="H12" s="2">
+        <f>AVERAGE(K12:T12)</f>
+        <v>98.175474199999996</v>
+      </c>
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>53.357165199999997</v>
-      </c>
-      <c r="W11">
+        <v>4.3817804600413286</v>
+      </c>
+      <c r="K12">
+        <v>94.941439000000003</v>
+      </c>
+      <c r="L12">
+        <v>112.54473900000001</v>
+      </c>
+      <c r="M12">
+        <v>98.259125999999995</v>
+      </c>
+      <c r="N12">
+        <v>91.931843999999998</v>
+      </c>
+      <c r="O12">
+        <v>93.200222999999994</v>
+      </c>
+      <c r="V12" s="1">
         <f t="shared" si="1"/>
-        <v>5.6486967674444228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
+        <v>98.175474199999996</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>8.3767206406871271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>32758</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>32753</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>32760</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>32754</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>32759</v>
       </c>
-      <c r="I12">
-        <f>STDEV(C12:G12)</f>
+      <c r="H13" s="2">
+        <f>AVERAGE(K13:T13)</f>
+        <v>83.025219333333339</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="0"/>
         <v>3.1144823004794873</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>75.916189000000003</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>84.652770000000004</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>83.770611000000002</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>83.953148999999996</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>78.412998999999999</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>91.445598000000004</v>
       </c>
-      <c r="V12">
+      <c r="V13" s="1">
+        <f t="shared" si="1"/>
+        <v>83.025219333333339</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>5.4181038924905343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>32635</v>
+      </c>
+      <c r="D15">
+        <v>32847</v>
+      </c>
+      <c r="E15">
+        <v>32713</v>
+      </c>
+      <c r="F15">
+        <v>32706</v>
+      </c>
+      <c r="G15">
+        <v>32870</v>
+      </c>
+      <c r="H15" s="2">
+        <f>AVERAGE(K15:T15)</f>
+        <v>101.5579841</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>83.025219333333339</v>
-      </c>
-      <c r="W12">
+        <v>100.31301012331352</v>
+      </c>
+      <c r="K15">
+        <v>106.20884</v>
+      </c>
+      <c r="L15">
+        <v>113.2483</v>
+      </c>
+      <c r="M15">
+        <v>99.624318000000002</v>
+      </c>
+      <c r="N15">
+        <v>101.382158</v>
+      </c>
+      <c r="O15">
+        <v>107.166856</v>
+      </c>
+      <c r="P15">
+        <v>117.545799</v>
+      </c>
+      <c r="Q15">
+        <v>93.261681999999993</v>
+      </c>
+      <c r="R15">
+        <v>105.041381</v>
+      </c>
+      <c r="S15">
+        <v>81.420434</v>
+      </c>
+      <c r="T15">
+        <v>90.680072999999993</v>
+      </c>
+      <c r="V15" s="1">
         <f t="shared" si="1"/>
-        <v>5.4181038924905343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>32635</v>
-      </c>
-      <c r="D13">
-        <v>32847</v>
-      </c>
-      <c r="E13">
-        <v>32713</v>
-      </c>
-      <c r="F13">
-        <v>32706</v>
-      </c>
-      <c r="G13">
-        <v>32870</v>
-      </c>
-      <c r="I13">
-        <f>STDEV(C13:G13)</f>
-        <v>100.31301012331352</v>
-      </c>
-      <c r="K13">
-        <v>106.20884</v>
-      </c>
-      <c r="L13">
-        <v>113.2483</v>
-      </c>
-      <c r="M13">
-        <v>99.624318000000002</v>
-      </c>
-      <c r="N13">
-        <v>101.382158</v>
-      </c>
-      <c r="O13">
-        <v>107.166856</v>
-      </c>
-      <c r="P13">
-        <v>117.545799</v>
-      </c>
-      <c r="Q13">
-        <v>93.261681999999993</v>
-      </c>
-      <c r="R13">
-        <v>105.041381</v>
-      </c>
-      <c r="S13">
-        <v>81.420434</v>
-      </c>
-      <c r="T13">
-        <v>90.680072999999993</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="0"/>
         <v>101.5579841</v>
       </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
+      <c r="W15">
+        <f t="shared" si="2"/>
         <v>10.82151227643992</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1303,7 @@
         <v>537</v>
       </c>
       <c r="I19">
-        <f>STDEV(C19:G19)</f>
+        <f t="shared" ref="I19:I32" si="3">STDEV(C19:G19)</f>
         <v>52.567099977076921</v>
       </c>
       <c r="K19">
@@ -1263,77 +1337,77 @@
         <v>3.1483319999999999</v>
       </c>
       <c r="V19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="V19:V48" si="4">AVERAGE(K19:T19)</f>
         <v>2.9056320999999996</v>
       </c>
       <c r="W19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27534315039175311</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D20">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="E20">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="F20">
-        <v>459</v>
+        <v>484</v>
       </c>
       <c r="G20">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="I20">
         <f>STDEV(C20:G20)</f>
-        <v>25.598828098176682</v>
+        <v>31.061229853307484</v>
       </c>
       <c r="K20">
-        <v>2.8470580000000001</v>
+        <v>2.4856150000000001</v>
       </c>
       <c r="L20">
-        <v>2.7068690000000002</v>
+        <v>4.7745879999999996</v>
       </c>
       <c r="M20">
-        <v>2.6313499999999999</v>
+        <v>2.8997440000000001</v>
       </c>
       <c r="N20">
-        <v>2.75482</v>
+        <v>3.1487630000000002</v>
       </c>
       <c r="O20">
-        <v>2.9808849999999998</v>
+        <v>2.6512479999999998</v>
       </c>
       <c r="P20">
-        <v>2.7745419999999998</v>
+        <v>2.7421600000000002</v>
       </c>
       <c r="Q20">
-        <v>2.5431240000000002</v>
+        <v>2.679961</v>
       </c>
       <c r="R20">
-        <v>2.9829210000000002</v>
+        <v>2.6548630000000002</v>
       </c>
       <c r="S20">
-        <v>3.2480920000000002</v>
+        <v>2.7407750000000002</v>
       </c>
       <c r="T20">
-        <v>3.0389240000000002</v>
+        <v>2.745549</v>
       </c>
       <c r="V20">
-        <f t="shared" si="0"/>
-        <v>2.8508585000000002</v>
+        <f>AVERAGE(K20:T20)</f>
+        <v>2.9523265999999997</v>
       </c>
       <c r="W20">
-        <f t="shared" si="1"/>
-        <v>0.21244345811127674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <f>STDEV(K20:T20)</f>
+        <v>0.66372731251608497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1387,77 +1461,77 @@
         <v>2.6913819999999999</v>
       </c>
       <c r="V21">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K21:T21)</f>
         <v>3.2050538000000004</v>
       </c>
       <c r="W21">
-        <f t="shared" si="1"/>
+        <f>STDEV(K21:T21)</f>
         <v>0.41548491461632131</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D22">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="E22">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="F22">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="G22">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="I22">
-        <f>STDEV(C22:G22)</f>
-        <v>31.061229853307484</v>
+        <f t="shared" si="3"/>
+        <v>25.598828098176682</v>
       </c>
       <c r="K22">
-        <v>2.4856150000000001</v>
+        <v>2.8470580000000001</v>
       </c>
       <c r="L22">
-        <v>4.7745879999999996</v>
+        <v>2.7068690000000002</v>
       </c>
       <c r="M22">
-        <v>2.8997440000000001</v>
+        <v>2.6313499999999999</v>
       </c>
       <c r="N22">
-        <v>3.1487630000000002</v>
+        <v>2.75482</v>
       </c>
       <c r="O22">
-        <v>2.6512479999999998</v>
+        <v>2.9808849999999998</v>
       </c>
       <c r="P22">
-        <v>2.7421600000000002</v>
+        <v>2.7745419999999998</v>
       </c>
       <c r="Q22">
-        <v>2.679961</v>
+        <v>2.5431240000000002</v>
       </c>
       <c r="R22">
-        <v>2.6548630000000002</v>
+        <v>2.9829210000000002</v>
       </c>
       <c r="S22">
-        <v>2.7407750000000002</v>
+        <v>3.2480920000000002</v>
       </c>
       <c r="T22">
-        <v>2.745549</v>
+        <v>3.0389240000000002</v>
       </c>
       <c r="V22">
-        <f t="shared" si="0"/>
-        <v>2.9523265999999997</v>
+        <f t="shared" si="4"/>
+        <v>2.8508585000000002</v>
       </c>
       <c r="W22">
-        <f t="shared" si="1"/>
-        <v>0.66372731251608497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <f t="shared" si="2"/>
+        <v>0.21244345811127674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1551,7 @@
         <v>383</v>
       </c>
       <c r="I23">
-        <f>STDEV(C23:G23)</f>
+        <f t="shared" si="3"/>
         <v>68.558733943969443</v>
       </c>
       <c r="K23">
@@ -1496,15 +1570,15 @@
         <v>43.519758000000003</v>
       </c>
       <c r="V23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>45.363620000000004</v>
       </c>
       <c r="W23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5735757923746483</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1524,7 +1598,7 @@
         <v>536</v>
       </c>
       <c r="I24">
-        <f>STDEV(C24:G24)</f>
+        <f t="shared" si="3"/>
         <v>50.381544239929767</v>
       </c>
       <c r="K24">
@@ -1558,263 +1632,263 @@
         <v>11.337268999999999</v>
       </c>
       <c r="V24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>10.917992999999999</v>
       </c>
       <c r="W24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.67173659217335058</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="D25">
-        <v>460</v>
+        <v>537</v>
       </c>
       <c r="E25">
-        <v>505</v>
+        <v>445</v>
       </c>
       <c r="F25">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="G25">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="I25">
         <f>STDEV(C25:G25)</f>
+        <v>42.700117095858182</v>
+      </c>
+      <c r="K25">
+        <v>10.788821</v>
+      </c>
+      <c r="L25">
+        <v>12.477468999999999</v>
+      </c>
+      <c r="M25">
+        <v>9.2694539999999996</v>
+      </c>
+      <c r="N25">
+        <v>9.0568380000000008</v>
+      </c>
+      <c r="O25">
+        <v>9.5028769999999998</v>
+      </c>
+      <c r="P25">
+        <v>9.1687589999999997</v>
+      </c>
+      <c r="Q25">
+        <v>8.7289259999999995</v>
+      </c>
+      <c r="R25">
+        <v>9.0122990000000005</v>
+      </c>
+      <c r="S25">
+        <v>9.0575659999999996</v>
+      </c>
+      <c r="T25">
+        <v>9.8614650000000008</v>
+      </c>
+      <c r="V25">
+        <f>AVERAGE(K25:T25)</f>
+        <v>9.6924473999999972</v>
+      </c>
+      <c r="W25">
+        <f>STDEV(K25:T25)</f>
+        <v>1.1389130423035814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>409</v>
+      </c>
+      <c r="D26">
+        <v>460</v>
+      </c>
+      <c r="E26">
+        <v>505</v>
+      </c>
+      <c r="F26">
+        <v>478</v>
+      </c>
+      <c r="G26">
+        <v>501</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
         <v>38.952535219161284</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>5.8395070000000002</v>
       </c>
-      <c r="L25">
+      <c r="L26">
         <v>5.0071940000000001</v>
       </c>
-      <c r="M25">
+      <c r="M26">
         <v>4.0720939999999999</v>
       </c>
-      <c r="N25">
+      <c r="N26">
         <v>4.1849069999999999</v>
       </c>
-      <c r="O25">
+      <c r="O26">
         <v>3.942002</v>
       </c>
-      <c r="P25">
+      <c r="P26">
         <v>4.2200689999999996</v>
       </c>
-      <c r="Q25">
+      <c r="Q26">
         <v>4.1075100000000004</v>
       </c>
-      <c r="R25">
+      <c r="R26">
         <v>4.1130959999999996</v>
       </c>
-      <c r="S25">
+      <c r="S26">
         <v>4.024966</v>
       </c>
-      <c r="T25">
+      <c r="T26">
         <v>4.3240360000000004</v>
       </c>
-      <c r="V25">
-        <f t="shared" si="0"/>
+      <c r="V26">
+        <f t="shared" si="4"/>
         <v>4.3835381</v>
       </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
+      <c r="W26">
+        <f t="shared" si="2"/>
         <v>0.59145442457901876</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>436</v>
-      </c>
-      <c r="D26">
-        <v>537</v>
-      </c>
-      <c r="E26">
-        <v>445</v>
-      </c>
-      <c r="F26">
-        <v>445</v>
-      </c>
-      <c r="G26">
-        <v>490</v>
-      </c>
-      <c r="I26">
-        <f>STDEV(C26:G26)</f>
-        <v>42.700117095858182</v>
-      </c>
-      <c r="K26">
-        <v>10.788821</v>
-      </c>
-      <c r="L26">
-        <v>12.477468999999999</v>
-      </c>
-      <c r="M26">
-        <v>9.2694539999999996</v>
-      </c>
-      <c r="N26">
-        <v>9.0568380000000008</v>
-      </c>
-      <c r="O26">
-        <v>9.5028769999999998</v>
-      </c>
-      <c r="P26">
-        <v>9.1687589999999997</v>
-      </c>
-      <c r="Q26">
-        <v>8.7289259999999995</v>
-      </c>
-      <c r="R26">
-        <v>9.0122990000000005</v>
-      </c>
-      <c r="S26">
-        <v>9.0575659999999996</v>
-      </c>
-      <c r="T26">
-        <v>9.8614650000000008</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="0"/>
-        <v>9.6924473999999972</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="1"/>
-        <v>1.1389130423035814</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>6388</v>
+        <v>558</v>
       </c>
       <c r="D27">
-        <v>5850</v>
+        <v>495</v>
       </c>
       <c r="E27">
-        <v>5822</v>
+        <v>434</v>
       </c>
       <c r="F27">
-        <v>6247</v>
+        <v>409</v>
       </c>
       <c r="G27">
-        <v>5949</v>
+        <v>457</v>
       </c>
       <c r="I27">
         <f>STDEV(C27:G27)</f>
+        <v>58.209105816873603</v>
+      </c>
+      <c r="K27">
+        <v>3.9213480000000001</v>
+      </c>
+      <c r="L27">
+        <v>5.282305</v>
+      </c>
+      <c r="M27">
+        <v>3.3860459999999999</v>
+      </c>
+      <c r="N27">
+        <v>3.8100390000000002</v>
+      </c>
+      <c r="O27">
+        <v>3.8956050000000002</v>
+      </c>
+      <c r="P27">
+        <v>3.617381</v>
+      </c>
+      <c r="Q27">
+        <v>3.5016759999999998</v>
+      </c>
+      <c r="R27">
+        <v>3.4260579999999998</v>
+      </c>
+      <c r="S27">
+        <v>4.2305539999999997</v>
+      </c>
+      <c r="T27">
+        <v>3.7195640000000001</v>
+      </c>
+      <c r="V27">
+        <f>AVERAGE(K27:T27)</f>
+        <v>3.8790575999999994</v>
+      </c>
+      <c r="W27">
+        <f>STDEV(K27:T27)</f>
+        <v>0.55618518549994489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>6388</v>
+      </c>
+      <c r="D28">
+        <v>5850</v>
+      </c>
+      <c r="E28">
+        <v>5822</v>
+      </c>
+      <c r="F28">
+        <v>6247</v>
+      </c>
+      <c r="G28">
+        <v>5949</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
         <v>252.60186064239511</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>4.7699369999999996</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <v>5.0587739999999997</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>3.280818</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>3.1146950000000002</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <v>3.8547509999999998</v>
       </c>
-      <c r="P27">
+      <c r="P28">
         <v>3.6735790000000001</v>
       </c>
-      <c r="Q27">
+      <c r="Q28">
         <v>4.0684459999999998</v>
       </c>
-      <c r="R27">
+      <c r="R28">
         <v>3.0976140000000001</v>
       </c>
-      <c r="S27">
+      <c r="S28">
         <v>3.2109540000000001</v>
       </c>
-      <c r="T27">
+      <c r="T28">
         <v>3.1301079999999999</v>
       </c>
-      <c r="V27">
-        <f t="shared" si="0"/>
+      <c r="V28">
+        <f t="shared" si="4"/>
         <v>3.7259675999999997</v>
       </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
+      <c r="W28">
+        <f t="shared" si="2"/>
         <v>0.71412685362619055</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>558</v>
-      </c>
-      <c r="D28">
-        <v>495</v>
-      </c>
-      <c r="E28">
-        <v>434</v>
-      </c>
-      <c r="F28">
-        <v>409</v>
-      </c>
-      <c r="G28">
-        <v>457</v>
-      </c>
-      <c r="I28">
-        <f>STDEV(C28:G28)</f>
-        <v>58.209105816873603</v>
-      </c>
-      <c r="K28">
-        <v>3.9213480000000001</v>
-      </c>
-      <c r="L28">
-        <v>5.282305</v>
-      </c>
-      <c r="M28">
-        <v>3.3860459999999999</v>
-      </c>
-      <c r="N28">
-        <v>3.8100390000000002</v>
-      </c>
-      <c r="O28">
-        <v>3.8956050000000002</v>
-      </c>
-      <c r="P28">
-        <v>3.617381</v>
-      </c>
-      <c r="Q28">
-        <v>3.5016759999999998</v>
-      </c>
-      <c r="R28">
-        <v>3.4260579999999998</v>
-      </c>
-      <c r="S28">
-        <v>4.2305539999999997</v>
-      </c>
-      <c r="T28">
-        <v>3.7195640000000001</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="0"/>
-        <v>3.8790575999999994</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="1"/>
-        <v>0.55618518549994489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1908,7 @@
         <v>691</v>
       </c>
       <c r="I29">
-        <f>STDEV(C29:G29)</f>
+        <f t="shared" si="3"/>
         <v>315.3558307689903</v>
       </c>
       <c r="K29">
@@ -1868,15 +1942,15 @@
         <v>2.9960969999999998</v>
       </c>
       <c r="V29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.1162504999999996</v>
       </c>
       <c r="W29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55499016983752059</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1896,7 +1970,7 @@
         <v>505</v>
       </c>
       <c r="I30">
-        <f>STDEV(C30:G30)</f>
+        <f t="shared" si="3"/>
         <v>25.657357619209346</v>
       </c>
       <c r="K30">
@@ -1930,15 +2004,15 @@
         <v>2.8993720000000001</v>
       </c>
       <c r="V30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.1366847</v>
       </c>
       <c r="W30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84855078812984852</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +2032,7 @@
         <v>498</v>
       </c>
       <c r="I31">
-        <f>STDEV(C31:G31)</f>
+        <f t="shared" si="3"/>
         <v>32.600613491159947</v>
       </c>
       <c r="K31">
@@ -1992,15 +2066,15 @@
         <v>5.938866</v>
       </c>
       <c r="V31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.846730599999999</v>
       </c>
       <c r="W31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1103130629779063</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2020,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f>STDEV(C32:G32)</f>
+        <f t="shared" si="3"/>
         <v>1052.2935902114011</v>
       </c>
       <c r="K32">
@@ -2054,20 +2128,23 @@
         <v>4.2595919999999996</v>
       </c>
       <c r="V32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.5970920999999993</v>
       </c>
       <c r="W32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87742565242651716</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2167,7 @@
         <f>SUM(C36:G36)</f>
         <v>643755</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <f>STDEV(C36:G36)</f>
         <v>547.11881707724149</v>
       </c>
@@ -2124,82 +2201,82 @@
       <c r="T36">
         <v>10.984964</v>
       </c>
-      <c r="V36">
-        <f t="shared" si="0"/>
+      <c r="V36" s="1">
+        <f t="shared" si="4"/>
         <v>10.955790200000001</v>
       </c>
       <c r="W36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3284589258031769</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>129338</v>
+        <v>128433</v>
       </c>
       <c r="D37">
-        <v>128764</v>
+        <v>128310</v>
       </c>
       <c r="E37">
-        <v>128376</v>
+        <v>128253</v>
       </c>
       <c r="F37">
-        <v>128854</v>
+        <v>129064</v>
       </c>
       <c r="G37">
-        <v>128423</v>
+        <v>129695</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H48" si="2">SUM(C37:G37)</f>
+        <f>SUM(C37:G37)</f>
         <v>643755</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <f>STDEV(C37:G37)</f>
-        <v>388.44433320618799</v>
+        <v>619.01413554134615</v>
       </c>
       <c r="K37">
-        <v>9.9773870000000002</v>
+        <v>10.103522</v>
       </c>
       <c r="L37">
-        <v>10.686733</v>
+        <v>14.272776</v>
       </c>
       <c r="M37">
-        <v>9.6902109999999997</v>
+        <v>9.3051940000000002</v>
       </c>
       <c r="N37">
-        <v>10.501434</v>
+        <v>9.9926390000000005</v>
       </c>
       <c r="O37">
-        <v>9.5146630000000005</v>
+        <v>10.446636</v>
       </c>
       <c r="P37">
-        <v>12.405841000000001</v>
+        <v>10.257178</v>
       </c>
       <c r="Q37">
-        <v>10.167382999999999</v>
+        <v>9.5393369999999997</v>
       </c>
       <c r="R37">
-        <v>9.1227750000000007</v>
+        <v>9.9553480000000008</v>
       </c>
       <c r="S37">
-        <v>9.6370070000000005</v>
+        <v>9.4931900000000002</v>
       </c>
       <c r="T37">
-        <v>11.497844000000001</v>
-      </c>
-      <c r="V37">
-        <f t="shared" si="0"/>
-        <v>10.3201278</v>
+        <v>9.0229230000000005</v>
+      </c>
+      <c r="V37" s="1">
+        <f>AVERAGE(K37:T37)</f>
+        <v>10.238874300000001</v>
       </c>
       <c r="W37">
-        <f t="shared" si="1"/>
-        <v>0.99950904699121601</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+        <f>STDEV(K37:T37)</f>
+        <v>1.4858927762083731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2219,10 +2296,10 @@
         <v>128817</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
+        <f>SUM(C38:G38)</f>
         <v>643755</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <f>STDEV(C38:G38)</f>
         <v>648.63048031988137</v>
       </c>
@@ -2256,82 +2333,82 @@
       <c r="T38">
         <v>9.9813469999999995</v>
       </c>
-      <c r="V38">
-        <f t="shared" si="0"/>
+      <c r="V38" s="1">
+        <f>AVERAGE(K38:T38)</f>
         <v>10.8088189</v>
       </c>
       <c r="W38">
-        <f t="shared" si="1"/>
+        <f>STDEV(K38:T38)</f>
         <v>1.3040269500697903</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>128433</v>
+        <v>129338</v>
       </c>
       <c r="D39">
-        <v>128310</v>
+        <v>128764</v>
       </c>
       <c r="E39">
-        <v>128253</v>
+        <v>128376</v>
       </c>
       <c r="F39">
-        <v>129064</v>
+        <v>128854</v>
       </c>
       <c r="G39">
-        <v>129695</v>
+        <v>128423</v>
       </c>
       <c r="H39">
+        <f t="shared" ref="H39:H48" si="5">SUM(C39:G39)</f>
+        <v>643755</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" ref="I36:I48" si="6">STDEV(C39:G39)</f>
+        <v>388.44433320618799</v>
+      </c>
+      <c r="K39">
+        <v>9.9773870000000002</v>
+      </c>
+      <c r="L39">
+        <v>10.686733</v>
+      </c>
+      <c r="M39">
+        <v>9.6902109999999997</v>
+      </c>
+      <c r="N39">
+        <v>10.501434</v>
+      </c>
+      <c r="O39">
+        <v>9.5146630000000005</v>
+      </c>
+      <c r="P39">
+        <v>12.405841000000001</v>
+      </c>
+      <c r="Q39">
+        <v>10.167382999999999</v>
+      </c>
+      <c r="R39">
+        <v>9.1227750000000007</v>
+      </c>
+      <c r="S39">
+        <v>9.6370070000000005</v>
+      </c>
+      <c r="T39">
+        <v>11.497844000000001</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="4"/>
+        <v>10.3201278</v>
+      </c>
+      <c r="W39">
         <f t="shared" si="2"/>
-        <v>643755</v>
-      </c>
-      <c r="I39">
-        <f>STDEV(C39:G39)</f>
-        <v>619.01413554134615</v>
-      </c>
-      <c r="K39">
-        <v>10.103522</v>
-      </c>
-      <c r="L39">
-        <v>14.272776</v>
-      </c>
-      <c r="M39">
-        <v>9.3051940000000002</v>
-      </c>
-      <c r="N39">
-        <v>9.9926390000000005</v>
-      </c>
-      <c r="O39">
-        <v>10.446636</v>
-      </c>
-      <c r="P39">
-        <v>10.257178</v>
-      </c>
-      <c r="Q39">
-        <v>9.5393369999999997</v>
-      </c>
-      <c r="R39">
-        <v>9.9553480000000008</v>
-      </c>
-      <c r="S39">
-        <v>9.4931900000000002</v>
-      </c>
-      <c r="T39">
-        <v>9.0229230000000005</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="0"/>
-        <v>10.238874300000001</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="1"/>
-        <v>1.4858927762083731</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>0.99950904699121601</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -2351,11 +2428,11 @@
         <v>128567</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>643755</v>
       </c>
-      <c r="I40">
-        <f>STDEV(C40:G40)</f>
+      <c r="I40" s="1">
+        <f t="shared" si="6"/>
         <v>655.08358245341492</v>
       </c>
       <c r="K40">
@@ -2367,16 +2444,16 @@
       <c r="M40">
         <v>256.85986300000002</v>
       </c>
-      <c r="V40">
-        <f t="shared" si="0"/>
+      <c r="V40" s="1">
+        <f>AVERAGE(K40:T40)</f>
         <v>255.64062699999999</v>
       </c>
       <c r="W40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2371396930710921</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2396,11 +2473,11 @@
         <v>128445</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>643755</v>
       </c>
-      <c r="I41">
-        <f>STDEV(C41:G41)</f>
+      <c r="I41" s="1">
+        <f t="shared" si="6"/>
         <v>373.01139392785308</v>
       </c>
       <c r="K41">
@@ -2418,265 +2495,265 @@
       <c r="O41">
         <v>55.219158</v>
       </c>
-      <c r="V41">
-        <f t="shared" si="0"/>
+      <c r="V41" s="1">
+        <f t="shared" si="4"/>
         <v>56.46768860000001</v>
       </c>
       <c r="W41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6213403777024444</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>128774</v>
+      </c>
+      <c r="D42">
+        <v>128511</v>
+      </c>
+      <c r="E42">
+        <v>129382</v>
+      </c>
+      <c r="F42">
+        <v>128734</v>
+      </c>
+      <c r="G42">
+        <v>128354</v>
+      </c>
+      <c r="H42">
+        <f>SUM(C42:G42)</f>
+        <v>643755</v>
+      </c>
+      <c r="I42" s="1">
+        <f>STDEV(C42:G42)</f>
+        <v>391.85073688842289</v>
+      </c>
+      <c r="K42">
+        <v>48.467219999999998</v>
+      </c>
+      <c r="L42">
+        <v>44.846062000000003</v>
+      </c>
+      <c r="M42">
+        <v>41.298009999999998</v>
+      </c>
+      <c r="N42">
+        <v>41.345968999999997</v>
+      </c>
+      <c r="O42">
+        <v>43.036126000000003</v>
+      </c>
+      <c r="V42" s="1">
+        <f>AVERAGE(K42:T42)</f>
+        <v>43.798677399999995</v>
+      </c>
+      <c r="W42">
+        <f>STDEV(K42:T42)</f>
+        <v>2.9892685178328833</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>129190</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>128521</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>128485</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>128641</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>128918</v>
       </c>
-      <c r="H42">
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>643755</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="6"/>
+        <v>298.48199275668208</v>
+      </c>
+      <c r="K43">
+        <v>18.331249</v>
+      </c>
+      <c r="L43">
+        <v>17.045449999999999</v>
+      </c>
+      <c r="M43">
+        <v>20.806799000000002</v>
+      </c>
+      <c r="N43">
+        <v>17.194547</v>
+      </c>
+      <c r="O43">
+        <v>16.569005000000001</v>
+      </c>
+      <c r="P43">
+        <v>16.293474</v>
+      </c>
+      <c r="Q43">
+        <v>16.389132</v>
+      </c>
+      <c r="R43">
+        <v>16.056643999999999</v>
+      </c>
+      <c r="S43">
+        <v>18.778473000000002</v>
+      </c>
+      <c r="T43">
+        <v>17.663485999999999</v>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" si="4"/>
+        <v>17.512825900000003</v>
+      </c>
+      <c r="W43">
         <f t="shared" si="2"/>
+        <v>1.4615497310043093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>128783</v>
+      </c>
+      <c r="D44">
+        <v>128905</v>
+      </c>
+      <c r="E44">
+        <v>127852</v>
+      </c>
+      <c r="F44">
+        <v>129379</v>
+      </c>
+      <c r="G44">
+        <v>128836</v>
+      </c>
+      <c r="H44">
+        <f>SUM(C44:G44)</f>
         <v>643755</v>
       </c>
-      <c r="I42">
-        <f>STDEV(C42:G42)</f>
-        <v>298.48199275668208</v>
-      </c>
-      <c r="K42">
-        <v>18.331249</v>
-      </c>
-      <c r="L42">
-        <v>17.045449999999999</v>
-      </c>
-      <c r="M42">
-        <v>20.806799000000002</v>
-      </c>
-      <c r="N42">
-        <v>17.194547</v>
-      </c>
-      <c r="O42">
-        <v>16.569005000000001</v>
-      </c>
-      <c r="P42">
-        <v>16.293474</v>
-      </c>
-      <c r="Q42">
-        <v>16.389132</v>
-      </c>
-      <c r="R42">
-        <v>16.056643999999999</v>
-      </c>
-      <c r="S42">
-        <v>18.778473000000002</v>
-      </c>
-      <c r="T42">
-        <v>17.663485999999999</v>
-      </c>
-      <c r="V42">
-        <f t="shared" si="0"/>
-        <v>17.512825900000003</v>
-      </c>
-      <c r="W42">
-        <f t="shared" si="1"/>
-        <v>1.4615497310043093</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>128774</v>
-      </c>
-      <c r="D43">
-        <v>128511</v>
-      </c>
-      <c r="E43">
-        <v>129382</v>
-      </c>
-      <c r="F43">
-        <v>128734</v>
-      </c>
-      <c r="G43">
-        <v>128354</v>
-      </c>
-      <c r="H43">
+      <c r="I44" s="1">
+        <f>STDEV(C44:G44)</f>
+        <v>555.55152776317698</v>
+      </c>
+      <c r="K44">
+        <v>13.576504999999999</v>
+      </c>
+      <c r="L44">
+        <v>16.864813999999999</v>
+      </c>
+      <c r="M44">
+        <v>15.187360999999999</v>
+      </c>
+      <c r="N44">
+        <v>13.854253999999999</v>
+      </c>
+      <c r="O44">
+        <v>14.512866000000001</v>
+      </c>
+      <c r="P44">
+        <v>13.676365000000001</v>
+      </c>
+      <c r="Q44">
+        <v>13.914122000000001</v>
+      </c>
+      <c r="R44">
+        <v>14.176726</v>
+      </c>
+      <c r="S44">
+        <v>15.631769999999999</v>
+      </c>
+      <c r="T44">
+        <v>13.979006</v>
+      </c>
+      <c r="V44" s="1">
+        <f>AVERAGE(K44:T44)</f>
+        <v>14.537378900000002</v>
+      </c>
+      <c r="W44">
+        <f>STDEV(K44:T44)</f>
+        <v>1.0540560193252906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>135479</v>
+      </c>
+      <c r="D45">
+        <v>134939</v>
+      </c>
+      <c r="E45">
+        <v>135381</v>
+      </c>
+      <c r="F45">
+        <v>134632</v>
+      </c>
+      <c r="G45">
+        <v>135016</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>675447</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="6"/>
+        <v>344.25324980310643</v>
+      </c>
+      <c r="K45">
+        <v>10.513869</v>
+      </c>
+      <c r="L45">
+        <v>14.075332</v>
+      </c>
+      <c r="M45">
+        <v>10.155711999999999</v>
+      </c>
+      <c r="N45">
+        <v>11.064285</v>
+      </c>
+      <c r="O45">
+        <v>11.281677999999999</v>
+      </c>
+      <c r="P45">
+        <v>11.229552</v>
+      </c>
+      <c r="Q45">
+        <v>10.081063</v>
+      </c>
+      <c r="R45">
+        <v>10.720352</v>
+      </c>
+      <c r="S45">
+        <v>10.667192999999999</v>
+      </c>
+      <c r="T45">
+        <v>10.557155</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" si="4"/>
+        <v>11.034619099999999</v>
+      </c>
+      <c r="W45">
         <f t="shared" si="2"/>
-        <v>643755</v>
-      </c>
-      <c r="I43">
-        <f>STDEV(C43:G43)</f>
-        <v>391.85073688842289</v>
-      </c>
-      <c r="K43">
-        <v>48.467219999999998</v>
-      </c>
-      <c r="L43">
-        <v>44.846062000000003</v>
-      </c>
-      <c r="M43">
-        <v>41.298009999999998</v>
-      </c>
-      <c r="N43">
-        <v>41.345968999999997</v>
-      </c>
-      <c r="O43">
-        <v>43.036126000000003</v>
-      </c>
-      <c r="V43">
-        <f t="shared" si="0"/>
-        <v>43.798677399999995</v>
-      </c>
-      <c r="W43">
-        <f t="shared" si="1"/>
-        <v>2.9892685178328833</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44">
-        <v>135479</v>
-      </c>
-      <c r="D44">
-        <v>134939</v>
-      </c>
-      <c r="E44">
-        <v>135381</v>
-      </c>
-      <c r="F44">
-        <v>134632</v>
-      </c>
-      <c r="G44">
-        <v>135016</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="2"/>
-        <v>675447</v>
-      </c>
-      <c r="I44">
-        <f>STDEV(C44:G44)</f>
-        <v>344.25324980310643</v>
-      </c>
-      <c r="K44">
-        <v>10.513869</v>
-      </c>
-      <c r="L44">
-        <v>14.075332</v>
-      </c>
-      <c r="M44">
-        <v>10.155711999999999</v>
-      </c>
-      <c r="N44">
-        <v>11.064285</v>
-      </c>
-      <c r="O44">
-        <v>11.281677999999999</v>
-      </c>
-      <c r="P44">
-        <v>11.229552</v>
-      </c>
-      <c r="Q44">
-        <v>10.081063</v>
-      </c>
-      <c r="R44">
-        <v>10.720352</v>
-      </c>
-      <c r="S44">
-        <v>10.667192999999999</v>
-      </c>
-      <c r="T44">
-        <v>10.557155</v>
-      </c>
-      <c r="V44">
-        <f t="shared" si="0"/>
-        <v>11.034619099999999</v>
-      </c>
-      <c r="W44">
-        <f t="shared" si="1"/>
         <v>1.1431203518946094</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>128783</v>
-      </c>
-      <c r="D45">
-        <v>128905</v>
-      </c>
-      <c r="E45">
-        <v>127852</v>
-      </c>
-      <c r="F45">
-        <v>129379</v>
-      </c>
-      <c r="G45">
-        <v>128836</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="2"/>
-        <v>643755</v>
-      </c>
-      <c r="I45">
-        <f>STDEV(C45:G45)</f>
-        <v>555.55152776317698</v>
-      </c>
-      <c r="K45">
-        <v>13.576504999999999</v>
-      </c>
-      <c r="L45">
-        <v>16.864813999999999</v>
-      </c>
-      <c r="M45">
-        <v>15.187360999999999</v>
-      </c>
-      <c r="N45">
-        <v>13.854253999999999</v>
-      </c>
-      <c r="O45">
-        <v>14.512866000000001</v>
-      </c>
-      <c r="P45">
-        <v>13.676365000000001</v>
-      </c>
-      <c r="Q45">
-        <v>13.914122000000001</v>
-      </c>
-      <c r="R45">
-        <v>14.176726</v>
-      </c>
-      <c r="S45">
-        <v>15.631769999999999</v>
-      </c>
-      <c r="T45">
-        <v>13.979006</v>
-      </c>
-      <c r="V45">
-        <f t="shared" si="0"/>
-        <v>14.537378900000002</v>
-      </c>
-      <c r="W45">
-        <f t="shared" si="1"/>
-        <v>1.0540560193252906</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2696,10 +2773,10 @@
         <v>128702</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>648777</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <f>STDEV(C46:G46)</f>
         <v>649.39956883262562</v>
       </c>
@@ -2733,16 +2810,16 @@
       <c r="T46">
         <v>9.7721459999999993</v>
       </c>
-      <c r="V46">
-        <f t="shared" si="0"/>
+      <c r="V46" s="1">
+        <f t="shared" si="4"/>
         <v>10.282712</v>
       </c>
       <c r="W46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.558373675962612</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -2762,10 +2839,10 @@
         <v>125057</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>643755</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <f>STDEV(C47:G47)</f>
         <v>4020.9703430888421</v>
       </c>
@@ -2784,16 +2861,16 @@
       <c r="O47">
         <v>60.192118999999998</v>
       </c>
-      <c r="V47">
-        <f t="shared" si="0"/>
+      <c r="V47" s="1">
+        <f t="shared" si="4"/>
         <v>65.876281599999999</v>
       </c>
       <c r="W47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3752014806072417</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2813,11 +2890,11 @@
         <v>126441</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>643755</v>
       </c>
-      <c r="I48">
-        <f>STDEV(C48:G48)</f>
+      <c r="I48" s="1">
+        <f t="shared" si="6"/>
         <v>2900.3021394330626</v>
       </c>
       <c r="K48">
@@ -2850,21 +2927,27 @@
       <c r="T48">
         <v>46.601481999999997</v>
       </c>
-      <c r="V48">
-        <f t="shared" si="0"/>
+      <c r="V48" s="1">
+        <f t="shared" si="4"/>
         <v>39.1311611</v>
       </c>
       <c r="W48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.803625179046576</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
